--- a/5/4/Moneda nacional 2004 a 2021 - Trimestral.xlsx
+++ b/5/4/Moneda nacional 2004 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Serie</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3202,6 +3205,44 @@
         <v>585</v>
       </c>
     </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71">
+        <v>41289</v>
+      </c>
+      <c r="C71">
+        <v>20181</v>
+      </c>
+      <c r="D71">
+        <v>16683</v>
+      </c>
+      <c r="E71">
+        <v>16</v>
+      </c>
+      <c r="F71">
+        <v>457</v>
+      </c>
+      <c r="G71">
+        <v>2840</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>586</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
